--- a/Excel2Json/excel/localization/localization.xlsx
+++ b/Excel2Json/excel/localization/localization.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beno/Documents/Work/SeaBattle/Excel2Json/excel/localization/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="8880" yWindow="5600" windowWidth="33560" windowHeight="19500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_config_" sheetId="1" r:id="rId1"/>
@@ -17,6 +22,11 @@
     <sheet name="图片" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -114,18 +124,6 @@
   </si>
   <si>
     <t>macro</t>
-  </si>
-  <si>
-    <t>zh-CN</t>
-  </si>
-  <si>
-    <t>zh-TW</t>
-  </si>
-  <si>
-    <t>en-US</t>
-  </si>
-  <si>
-    <t>ar-SA</t>
   </si>
   <si>
     <t>PRESS_FORWARD</t>
@@ -5416,18 +5414,24 @@
   <si>
     <t>MysteryAwardTitle_AR</t>
   </si>
+  <si>
+    <t>ChineseSimplified</t>
+  </si>
+  <si>
+    <t>ChineseTraditional</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5524,157 +5528,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -5692,8 +5545,14 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5712,194 +5571,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5922,263 +5595,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6187,19 +5618,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6212,7 +5643,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6222,96 +5653,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="51">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="Normal 2" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="普通 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6644,46 +6028,45 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="20" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3333333333333" style="24" customWidth="1"/>
-    <col min="2" max="2" width="21.5047619047619" style="24" customWidth="1"/>
-    <col min="3" max="16384" width="8.82857142857143" style="24"/>
+    <col min="1" max="1" width="19.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="24" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" spans="1:3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="21" customFormat="1" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
@@ -6694,7 +6077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="21" customFormat="1" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
@@ -6705,7 +6088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
@@ -6716,7 +6099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>11</v>
       </c>
@@ -6727,7 +6110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>13</v>
       </c>
@@ -6738,7 +6121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>15</v>
       </c>
@@ -6749,7 +6132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" s="21" customFormat="1" customHeight="1" spans="1:3">
+    <row r="9" spans="1:3" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
@@ -6769,34 +6152,31 @@
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5047619047619" style="22" customWidth="1"/>
-    <col min="2" max="2" width="38.6666666666667" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="23" customWidth="1"/>
     <col min="3" max="4" width="50" style="7" customWidth="1"/>
-    <col min="5" max="5" width="71.6666666666667" style="24" customWidth="1"/>
-    <col min="6" max="6" width="64.6666666666667" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="8.82857142857143" style="24"/>
+    <col min="5" max="5" width="71.6640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="64.6640625" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33" spans="1:4">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -6804,7 +6184,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -6824,7 +6204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -6844,7 +6224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -6852,579 +6232,579 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>801</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>802</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>803</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="5" s="21" customFormat="1" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="6" s="21" customFormat="1" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>3</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>4</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>5</v>
       </c>
       <c r="B9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>6</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>10</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>11</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>12</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>13</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>14</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>102</v>
-      </c>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>15</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>107</v>
-      </c>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>16</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>112</v>
-      </c>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>17</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>18</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>19</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>20</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>129</v>
-      </c>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>21</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>134</v>
-      </c>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>22</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>23</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>144</v>
-      </c>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>24</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>149</v>
-      </c>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>25</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>26</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>158</v>
-      </c>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>27</v>
       </c>
       <c r="B31" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>163</v>
-      </c>
     </row>
-    <row r="32" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>28</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>29</v>
       </c>
@@ -7432,296 +6812,296 @@
         <v>17</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>30</v>
       </c>
       <c r="B34" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="35" customHeight="1" spans="1:6">
+    <row r="35" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>31</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>180</v>
-      </c>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>32</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>185</v>
-      </c>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
+    <row r="37" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>33</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>190</v>
-      </c>
     </row>
-    <row r="38" customHeight="1" spans="1:6">
+    <row r="38" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>34</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>195</v>
-      </c>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>35</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>200</v>
-      </c>
     </row>
-    <row r="40" customHeight="1" spans="1:6">
+    <row r="40" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>36</v>
       </c>
       <c r="B40" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>205</v>
-      </c>
     </row>
-    <row r="41" customHeight="1" spans="1:6">
+    <row r="41" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>37</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>38</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>214</v>
-      </c>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
+    <row r="43" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>39</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>219</v>
-      </c>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>40</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:6">
+    <row r="45" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>41</v>
       </c>
       <c r="B45" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>228</v>
-      </c>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>42</v>
       </c>
       <c r="B46" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>233</v>
-      </c>
     </row>
-    <row r="47" customFormat="1" customHeight="1" spans="1:16384">
+    <row r="47" spans="1:16384" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>43</v>
       </c>
       <c r="B47" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
@@ -24102,22 +23482,22 @@
       <c r="XFC47" s="23"/>
       <c r="XFD47" s="23"/>
     </row>
-    <row r="48" customFormat="1" customHeight="1" spans="1:16384">
+    <row r="48" spans="1:16384" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>44</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
@@ -40498,977 +39878,975 @@
       <c r="XFC48" s="23"/>
       <c r="XFD48" s="23"/>
     </row>
-    <row r="49" customHeight="1" spans="1:6">
+    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>45</v>
       </c>
       <c r="B49" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F49" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>247</v>
-      </c>
     </row>
-    <row r="50" ht="16.5" spans="1:6">
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>46</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:6">
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>47</v>
       </c>
       <c r="B51" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>256</v>
-      </c>
     </row>
-    <row r="52" ht="16.5" spans="1:6">
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>48</v>
       </c>
       <c r="B52" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>261</v>
-      </c>
     </row>
-    <row r="53" customHeight="1" spans="1:6">
+    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>49</v>
       </c>
       <c r="B53" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>266</v>
-      </c>
     </row>
-    <row r="54" ht="16.5" spans="1:6">
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>50</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:6">
+    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>51</v>
       </c>
       <c r="B55" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C55" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>275</v>
-      </c>
     </row>
-    <row r="56" customHeight="1" spans="1:6">
+    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>52</v>
       </c>
       <c r="B56" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="57" customHeight="1" spans="1:6">
+    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>53</v>
       </c>
       <c r="B57" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>285</v>
-      </c>
     </row>
-    <row r="58" customHeight="1" spans="1:6">
+    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>54</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="59" customHeight="1" spans="1:6">
+    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>55</v>
       </c>
       <c r="B59" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>295</v>
-      </c>
     </row>
-    <row r="60" customHeight="1" spans="1:6">
+    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>56</v>
       </c>
       <c r="B60" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>300</v>
-      </c>
     </row>
-    <row r="61" customHeight="1" spans="1:6">
+    <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>57</v>
       </c>
       <c r="B61" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>305</v>
-      </c>
     </row>
-    <row r="62" customHeight="1" spans="1:6">
+    <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>58</v>
       </c>
       <c r="B62" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>310</v>
-      </c>
     </row>
-    <row r="63" customHeight="1" spans="1:6">
+    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>59</v>
       </c>
       <c r="B63" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="F63" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>315</v>
-      </c>
     </row>
-    <row r="64" customHeight="1" spans="1:6">
+    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>60</v>
       </c>
       <c r="B64" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>320</v>
-      </c>
     </row>
-    <row r="65" customHeight="1" spans="1:6">
+    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>61</v>
       </c>
       <c r="B65" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>325</v>
-      </c>
     </row>
-    <row r="66" customHeight="1" spans="1:6">
+    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>62</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:6">
+    <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>63</v>
       </c>
       <c r="B67" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="F67" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>334</v>
-      </c>
     </row>
-    <row r="68" customHeight="1" spans="1:6">
+    <row r="68" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>64</v>
       </c>
       <c r="B68" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>339</v>
-      </c>
     </row>
-    <row r="69" customHeight="1" spans="1:6">
+    <row r="69" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>65</v>
       </c>
       <c r="B69" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="F69" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>344</v>
-      </c>
     </row>
-    <row r="70" customHeight="1" spans="1:6">
+    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>67</v>
       </c>
       <c r="B70" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>349</v>
-      </c>
     </row>
-    <row r="71" customHeight="1" spans="1:6">
+    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>66</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>354</v>
-      </c>
     </row>
-    <row r="72" customHeight="1" spans="1:6">
+    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>68</v>
       </c>
       <c r="B72" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>359</v>
-      </c>
     </row>
-    <row r="73" customHeight="1" spans="1:6">
+    <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>69</v>
       </c>
       <c r="B73" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>364</v>
-      </c>
     </row>
-    <row r="74" customHeight="1" spans="1:6">
+    <row r="74" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>70</v>
       </c>
       <c r="B74" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>369</v>
-      </c>
     </row>
-    <row r="75" customHeight="1" spans="1:6">
+    <row r="75" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>71</v>
       </c>
       <c r="B75" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>374</v>
-      </c>
     </row>
-    <row r="76" customHeight="1" spans="1:6">
+    <row r="76" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>72</v>
       </c>
       <c r="B76" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>379</v>
-      </c>
     </row>
-    <row r="77" customHeight="1" spans="1:6">
+    <row r="77" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>73</v>
       </c>
       <c r="B77" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F77" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="C77" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="F77" s="32" t="s">
-        <v>384</v>
-      </c>
     </row>
-    <row r="78" customHeight="1" spans="1:6">
+    <row r="78" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>74</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:6">
+    <row r="79" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>75</v>
       </c>
       <c r="B79" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>390</v>
-      </c>
     </row>
-    <row r="80" customHeight="1" spans="1:6">
+    <row r="80" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>76</v>
       </c>
       <c r="B80" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="F80" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>395</v>
-      </c>
     </row>
-    <row r="81" customHeight="1" spans="1:6">
+    <row r="81" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>77</v>
       </c>
       <c r="B81" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="82" customHeight="1" spans="1:6">
+    <row r="82" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>78</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:6">
+    <row r="83" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>79</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:6">
+    <row r="84" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>80</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:6">
+    <row r="85" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>81</v>
       </c>
       <c r="B85" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="F85" t="s">
         <v>411</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="F85" t="s">
-        <v>415</v>
-      </c>
     </row>
-    <row r="86" customHeight="1" spans="1:6">
+    <row r="86" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <v>82</v>
       </c>
       <c r="B86" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="F86" t="s">
         <v>416</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="F86" t="s">
-        <v>420</v>
-      </c>
     </row>
-    <row r="87" customHeight="1" spans="1:6">
+    <row r="87" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>83</v>
       </c>
       <c r="B87" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>425</v>
-      </c>
     </row>
-    <row r="88" customHeight="1" spans="1:6">
+    <row r="88" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>84</v>
       </c>
       <c r="B88" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="E88" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>430</v>
-      </c>
     </row>
-    <row r="89" customHeight="1" spans="1:6">
+    <row r="89" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>85</v>
       </c>
       <c r="B89" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="F89" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>435</v>
-      </c>
     </row>
-    <row r="90" customHeight="1" spans="1:6">
+    <row r="90" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>86</v>
       </c>
       <c r="B90" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>440</v>
-      </c>
     </row>
-    <row r="91" customHeight="1" spans="1:6">
+    <row r="91" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <v>87</v>
       </c>
       <c r="B91" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F91" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>445</v>
-      </c>
     </row>
-    <row r="92" customHeight="1" spans="1:6">
+    <row r="92" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>88</v>
       </c>
       <c r="B92" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="F92" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="F92" s="24" t="s">
-        <v>450</v>
-      </c>
     </row>
-    <row r="93" customHeight="1" spans="1:6">
+    <row r="93" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>89</v>
       </c>
       <c r="B93" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="F93" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="F93" s="24" t="s">
-        <v>455</v>
-      </c>
     </row>
-    <row r="94" customHeight="1" spans="1:6">
+    <row r="94" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <v>90</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:6">
+    <row r="95" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>91</v>
       </c>
       <c r="B95" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="F95" s="24" t="s">
         <v>460</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>464</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A3:$XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3">
       <formula1>"STRING,INT,FLOAT,DOUBLE,BOOL,MACRO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16190476190476" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1619047619048" customWidth="1"/>
-    <col min="2" max="2" width="67.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="70.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="69.8285714285714" customWidth="1"/>
-    <col min="5" max="5" width="69.1619047619048" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="69.83203125" customWidth="1"/>
+    <col min="5" max="5" width="69.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" spans="1:5">
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -41477,7 +40855,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -41494,7 +40872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -41511,157 +40889,157 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>801</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>802</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>803</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>1000000</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>1000001</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:5">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>1000002</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>1000003</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:5">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>1000004</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:5">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>1000005</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:5">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>1000006</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:5">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>1000007</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D12" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -41672,29 +41050,27 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16190476190476" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="46.1619047619048" customWidth="1"/>
-    <col min="3" max="3" width="51.1619047619048" customWidth="1"/>
-    <col min="4" max="4" width="63.5047619047619" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" customWidth="1"/>
+    <col min="4" max="4" width="63.5" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" spans="1:5">
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -41703,7 +41079,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -41720,7 +41096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -41737,296 +41113,296 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>801</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>802</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>803</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>1000101</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>1000102</v>
       </c>
       <c r="B6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:5">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>1000103</v>
       </c>
       <c r="B7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>1000104</v>
       </c>
       <c r="B8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D8" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>1000201</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>1000202</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E10" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>1000203</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:5">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>1000204</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>1000205</v>
       </c>
       <c r="B13" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C13" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D13" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>1000206</v>
       </c>
       <c r="B14" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C14" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:5">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>1001101</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C15" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D15" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E15" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="1:5">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>1001102</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C16" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E16" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:5">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>1001103</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C17" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D17" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E17" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="1:5">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>1002101</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C18" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D18" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:5">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>1002102</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C19" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D19" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="1:5">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>1002103</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C20" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D20" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
     </row>
   </sheetData>
@@ -42036,29 +41412,27 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16190476190476" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5047619047619" customWidth="1"/>
-    <col min="2" max="2" width="52.8285714285714" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" customWidth="1"/>
     <col min="3" max="3" width="68" customWidth="1"/>
     <col min="4" max="4" width="62" customWidth="1"/>
-    <col min="5" max="5" width="33.5047619047619" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" spans="1:5">
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -42067,7 +41441,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -42084,7 +41458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -42101,871 +41475,871 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>801</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>802</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>803</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>1003001</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>1003002</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:5">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>1003003</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>1003004</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:5">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>1003005</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E9" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:5">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>1003006</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:5">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>1003007</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:5">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>1003008</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D12" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>1003009</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D13" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E13" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>2010000</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:5">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>2010001</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D15" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E15" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="1:5">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>2010002</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E16" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:5">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>2010003</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D17" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="1:5">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>2010004</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D18" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E18" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:5">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>2010005</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D19" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E19" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="1:5">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>2010006</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D20" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E20" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:5">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>2010007</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D21" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="1:5">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>2010008</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D22" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E22" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="1:5">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>2010009</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D23" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E23" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="1:5">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>2010010</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D24" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="1:5">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>2010011</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D25" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="1:5">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>2010012</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:5">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>2010013</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D27" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="1:5">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>2010014</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D28" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E28" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="1:5">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>2010015</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D29" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E29" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="1:5">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>2010016</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="1:5">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>2010017</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D31" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E31" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="1:5">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>2010018</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D32" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E32" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="1:5">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>2010019</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D33" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="1:5">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>2010020</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D34" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="1:5">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>2010021</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D35" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
-    <row r="36" ht="15.75" spans="1:5">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>2010022</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D36" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E36" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
-    <row r="37" ht="15.75" spans="1:5">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>2010023</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D37" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E37" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
-    <row r="38" ht="15.75" spans="1:5">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>2010024</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D38" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E38" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
-    <row r="39" ht="15.75" spans="1:5">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>2010028</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D39" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E39" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
-    <row r="40" ht="15.75" spans="1:5">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>2010029</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D40" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E40" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
-    <row r="41" ht="15.75" spans="1:5">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>2010030</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D41" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E41" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
-    <row r="42" ht="15.75" spans="1:5">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>2010031</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D42" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E42" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
-    <row r="43" ht="15.75" spans="1:5">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>2010032</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D43" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E43" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
-    <row r="44" ht="15.75" spans="1:5">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>2010033</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D44" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E44" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
-    <row r="45" ht="15.75" spans="1:5">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>2010034</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D45" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E45" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
-    <row r="46" ht="15.75" spans="1:5">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>2010035</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D46" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E46" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
-    <row r="47" ht="15.75" spans="1:5">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>2010036</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D47" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E47" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
-    <row r="48" ht="15.75" spans="1:5">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>2010037</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D48" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E48" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
-    <row r="49" ht="15.75" spans="1:5">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>2010038</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D49" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E49" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
-    <row r="50" ht="15.75" spans="1:5">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>2010039</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D50" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E50" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
-    <row r="51" ht="15.75" spans="1:5">
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>2010042</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D51" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E51" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="52" ht="15.75" spans="1:5">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>2010043</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D52" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
-    <row r="53" ht="15.75" spans="1:5">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>2010044</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D53" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
-    <row r="54" ht="15.75" spans="1:5">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>2010045</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D54" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -42975,29 +42349,27 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16190476190476" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="55.1619047619048" customWidth="1"/>
-    <col min="3" max="3" width="40.1619047619048" customWidth="1"/>
-    <col min="4" max="4" width="55.5047619047619" customWidth="1"/>
-    <col min="5" max="5" width="60.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" spans="1:5">
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -43006,7 +42378,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -43023,7 +42395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -43040,106 +42412,106 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>801</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>802</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>803</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:5">
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1001107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="1:5">
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>1001108</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C6" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E6" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="1:5">
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1001109</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:5">
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1001110</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C8" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D8" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E8" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
-    <row r="9" ht="18.75" spans="1:5">
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1001111</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C9" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D9" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E9" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -43149,29 +42521,27 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="45.1619047619048" customWidth="1"/>
-    <col min="3" max="3" width="48.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="65.5047619047619" customWidth="1"/>
-    <col min="5" max="5" width="80.5047619047619" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="65.5" customWidth="1"/>
+    <col min="5" max="5" width="80.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -43180,7 +42550,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" ht="23" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -43197,7 +42567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="23" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -43214,266 +42584,266 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="23" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>801</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>802</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>803</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2000</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D5" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2001</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C6" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D6" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E6" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2002</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C7" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D7" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2003</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C8" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D8" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E8" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2004</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C9" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D9" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E9" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2005</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C10" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D10" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E10" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2006</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2007</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C12" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D12" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E12" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D13" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2009</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C14" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D14" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:2">
+    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" customHeight="1" spans="1:2">
+    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" customHeight="1" spans="1:2">
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" customHeight="1" spans="1:2">
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" customHeight="1" spans="1:2">
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" customHeight="1" spans="1:2">
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="9"/>
     </row>
-    <row r="21" customHeight="1" spans="1:2">
+    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="9"/>
     </row>
-    <row r="22" customHeight="1" spans="1:2">
+    <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" customHeight="1" spans="1:2">
+    <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" customHeight="1" spans="1:2">
+    <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" customHeight="1" spans="1:2">
+    <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" customHeight="1" spans="1:2">
+    <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" customHeight="1" spans="1:2">
+    <row r="27" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="9"/>
     </row>
-    <row r="28" customHeight="1" spans="1:2">
+    <row r="28" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="9"/>
     </row>
-    <row r="29" customHeight="1" spans="1:2">
+    <row r="29" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" customHeight="1" spans="1:2">
+    <row r="30" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" customHeight="1" spans="1:2">
+    <row r="31" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="9"/>
     </row>
-    <row r="32" customHeight="1" spans="1:2">
+    <row r="32" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="9"/>
     </row>
-    <row r="33" customHeight="1" spans="1:2">
+    <row r="33" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="9"/>
     </row>
@@ -43483,35 +42853,34 @@
       <formula1>"STRING,INT,FLOAT,DOUBLE,BOOL,MACRO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5047619047619" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.5047619047619" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.4285714285714" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.8285714285714" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.1619047619048" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.3333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:4">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -43519,7 +42888,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="23" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -43539,7 +42908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="23" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -43559,7 +42928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="23" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -43567,85 +42936,84 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>801</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>802</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>803</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>804</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>794</v>
-      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1001</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>799</v>
-      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1002</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>804</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:B3 C3 D3:F3 G3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3">
       <formula1>"STRING,INT,FLOAT,DOUBLE,BOOL,MACRO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/Excel2Json/excel/localization/localization.xlsx
+++ b/Excel2Json/excel/localization/localization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="5600" windowWidth="33560" windowHeight="19500" activeTab="1"/>
+    <workbookView xWindow="8880" yWindow="5600" windowWidth="33560" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="_config_" sheetId="1" r:id="rId1"/>
@@ -48,16 +48,10 @@
     <t>语言</t>
   </si>
   <si>
-    <t>language</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
     <t>图片</t>
-  </si>
-  <si>
-    <t>localized_sprite</t>
   </si>
   <si>
     <t>成就配置</t>
@@ -5425,6 +5419,12 @@
   </si>
   <si>
     <t>Arabic</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -6036,9 +6036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6071,76 +6071,76 @@
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>803</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>8</v>
+        <v>804</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6161,7 +6161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
@@ -6178,7 +6178,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -6186,62 +6186,62 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6249,19 +6249,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6269,19 +6269,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="27" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6289,19 +6289,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6309,19 +6309,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="E8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6329,19 +6329,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6349,19 +6349,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="F10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6369,19 +6369,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6389,19 +6389,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="F12" s="28" t="s">
         <v>66</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6409,19 +6409,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="E13" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6429,19 +6429,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="E14" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6449,19 +6449,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="28" t="s">
         <v>81</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6469,19 +6469,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6489,19 +6489,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6509,19 +6509,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="E18" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6529,19 +6529,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6549,19 +6549,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="E20" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6569,19 +6569,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="F21" s="24" t="s">
         <v>110</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6589,19 +6589,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6609,19 +6609,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6629,19 +6629,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="E24" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6649,19 +6649,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6669,19 +6669,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="E26" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6689,19 +6689,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6709,19 +6709,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="E28" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6729,19 +6729,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6749,19 +6749,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="E30" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="F30" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6769,19 +6769,19 @@
         <v>27</v>
       </c>
       <c r="B31" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6789,19 +6789,19 @@
         <v>28</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6809,19 +6809,19 @@
         <v>29</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6829,19 +6829,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="E34" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="F34" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6849,19 +6849,19 @@
         <v>31</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="E35" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="F35" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6869,19 +6869,19 @@
         <v>32</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="E36" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="F36" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6889,19 +6889,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="E37" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="F37" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6909,19 +6909,19 @@
         <v>34</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="E38" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="F38" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6929,19 +6929,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="E39" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="F39" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6949,19 +6949,19 @@
         <v>36</v>
       </c>
       <c r="B40" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="E40" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="F40" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6969,19 +6969,19 @@
         <v>37</v>
       </c>
       <c r="B41" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="F41" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6989,19 +6989,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="E42" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7009,19 +7009,19 @@
         <v>39</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="E43" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="F43" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7029,19 +7029,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="F44" s="24" t="s">
         <v>217</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7049,19 +7049,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="E45" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="F45" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:16384" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7069,19 +7069,19 @@
         <v>42</v>
       </c>
       <c r="B46" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="E46" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:16384" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7089,19 +7089,19 @@
         <v>43</v>
       </c>
       <c r="B47" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="E47" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="F47" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
@@ -23487,17 +23487,17 @@
         <v>44</v>
       </c>
       <c r="B48" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>235</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>237</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
@@ -39883,19 +39883,19 @@
         <v>45</v>
       </c>
       <c r="B49" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="E49" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="F49" s="24" t="s">
         <v>241</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -39903,19 +39903,19 @@
         <v>46</v>
       </c>
       <c r="B50" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="F50" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -39923,19 +39923,19 @@
         <v>47</v>
       </c>
       <c r="B51" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="E51" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="F51" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -39943,19 +39943,19 @@
         <v>48</v>
       </c>
       <c r="B52" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="E52" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="F52" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -39963,19 +39963,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="D53" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="E53" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="F53" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -39983,19 +39983,19 @@
         <v>50</v>
       </c>
       <c r="B54" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="F54" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40003,19 +40003,19 @@
         <v>51</v>
       </c>
       <c r="B55" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="E55" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="F55" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40023,19 +40023,19 @@
         <v>52</v>
       </c>
       <c r="B56" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="E56" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="F56" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40043,19 +40043,19 @@
         <v>53</v>
       </c>
       <c r="B57" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="E57" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="F57" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40063,19 +40063,19 @@
         <v>54</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="F58" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40083,19 +40083,19 @@
         <v>55</v>
       </c>
       <c r="B59" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="E59" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="F59" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40103,19 +40103,19 @@
         <v>56</v>
       </c>
       <c r="B60" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="E60" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="F60" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40123,19 +40123,19 @@
         <v>57</v>
       </c>
       <c r="B61" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="E61" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="F61" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40143,19 +40143,19 @@
         <v>58</v>
       </c>
       <c r="B62" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="E62" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="F62" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40163,19 +40163,19 @@
         <v>59</v>
       </c>
       <c r="B63" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="E63" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="F63" s="24" t="s">
         <v>309</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40183,19 +40183,19 @@
         <v>60</v>
       </c>
       <c r="B64" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="E64" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="F64" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40203,19 +40203,19 @@
         <v>61</v>
       </c>
       <c r="B65" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="E65" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="F65" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40223,19 +40223,19 @@
         <v>62</v>
       </c>
       <c r="B66" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="E66" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40243,19 +40243,19 @@
         <v>63</v>
       </c>
       <c r="B67" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="E67" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="F67" s="15" t="s">
         <v>328</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40263,19 +40263,19 @@
         <v>64</v>
       </c>
       <c r="B68" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="E68" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="F68" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40283,19 +40283,19 @@
         <v>65</v>
       </c>
       <c r="B69" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="E69" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="F69" s="16" t="s">
         <v>338</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40303,19 +40303,19 @@
         <v>67</v>
       </c>
       <c r="B70" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="E70" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="F70" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40323,19 +40323,19 @@
         <v>66</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="E71" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="F71" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40343,19 +40343,19 @@
         <v>68</v>
       </c>
       <c r="B72" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="E72" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="F72" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40363,19 +40363,19 @@
         <v>69</v>
       </c>
       <c r="B73" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="E73" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="F73" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40383,19 +40383,19 @@
         <v>70</v>
       </c>
       <c r="B74" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="E74" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="F74" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40403,19 +40403,19 @@
         <v>71</v>
       </c>
       <c r="B75" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="E75" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="F75" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40423,19 +40423,19 @@
         <v>72</v>
       </c>
       <c r="B76" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="E76" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="F76" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40443,19 +40443,19 @@
         <v>73</v>
       </c>
       <c r="B77" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="D77" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="E77" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="F77" s="32" t="s">
         <v>378</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F77" s="32" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40463,19 +40463,19 @@
         <v>74</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C78" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="F78" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40483,19 +40483,19 @@
         <v>75</v>
       </c>
       <c r="B79" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="E79" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="F79" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40503,19 +40503,19 @@
         <v>76</v>
       </c>
       <c r="B80" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="E80" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="F80" s="24" t="s">
         <v>389</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40523,19 +40523,19 @@
         <v>77</v>
       </c>
       <c r="B81" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="E81" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="F81" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40543,19 +40543,19 @@
         <v>78</v>
       </c>
       <c r="B82" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E82" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="F82" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40563,19 +40563,19 @@
         <v>79</v>
       </c>
       <c r="B83" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E83" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>403</v>
-      </c>
       <c r="F83" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40583,19 +40583,19 @@
         <v>80</v>
       </c>
       <c r="B84" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40603,19 +40603,19 @@
         <v>81</v>
       </c>
       <c r="B85" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="E85" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="F85" t="s">
         <v>409</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="F85" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40623,19 +40623,19 @@
         <v>82</v>
       </c>
       <c r="B86" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="E86" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="F86" t="s">
         <v>414</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="F86" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40643,19 +40643,19 @@
         <v>83</v>
       </c>
       <c r="B87" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="E87" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="F87" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40663,19 +40663,19 @@
         <v>84</v>
       </c>
       <c r="B88" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="E88" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="F88" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="E88" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40683,19 +40683,19 @@
         <v>85</v>
       </c>
       <c r="B89" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="E89" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="F89" s="24" t="s">
         <v>429</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40703,19 +40703,19 @@
         <v>86</v>
       </c>
       <c r="B90" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="E90" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="F90" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40723,19 +40723,19 @@
         <v>87</v>
       </c>
       <c r="B91" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="E91" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="F91" s="24" t="s">
         <v>439</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40743,19 +40743,19 @@
         <v>88</v>
       </c>
       <c r="B92" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="E92" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="F92" s="24" t="s">
         <v>444</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="F92" s="24" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40763,19 +40763,19 @@
         <v>89</v>
       </c>
       <c r="B93" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="E93" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="F93" s="24" t="s">
         <v>449</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="F93" s="24" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40783,19 +40783,19 @@
         <v>90</v>
       </c>
       <c r="B94" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E94" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="F94" s="24" t="s">
         <v>453</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="F94" s="24" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -40803,19 +40803,19 @@
         <v>91</v>
       </c>
       <c r="B95" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="E95" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="F95" s="24" t="s">
         <v>458</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -40848,7 +40848,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -40857,53 +40857,53 @@
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -40911,16 +40911,16 @@
         <v>1000000</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="E5" t="s">
         <v>462</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="E5" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -40928,16 +40928,16 @@
         <v>1000001</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="E6" t="s">
         <v>466</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="E6" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -40945,16 +40945,16 @@
         <v>1000002</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="E7" t="s">
         <v>470</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="E7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -40962,16 +40962,16 @@
         <v>1000003</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="E8" s="16" t="s">
         <v>474</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -40979,16 +40979,16 @@
         <v>1000004</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" t="s">
         <v>478</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="E9" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -40996,16 +40996,16 @@
         <v>1000005</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="E10" t="s">
         <v>482</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="E10" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41013,16 +41013,16 @@
         <v>1000006</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="E11" t="s">
         <v>486</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="E11" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41030,16 +41030,16 @@
         <v>1000007</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D12" t="s">
         <v>489</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="E12" t="s">
         <v>490</v>
-      </c>
-      <c r="D12" t="s">
-        <v>491</v>
-      </c>
-      <c r="E12" t="s">
-        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -41058,7 +41058,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41072,7 +41072,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -41081,53 +41081,53 @@
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41135,16 +41135,16 @@
         <v>1000101</v>
       </c>
       <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
         <v>212</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>213</v>
-      </c>
-      <c r="D5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41152,16 +41152,16 @@
         <v>1000102</v>
       </c>
       <c r="B6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" t="s">
         <v>493</v>
-      </c>
-      <c r="C6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D6" t="s">
-        <v>494</v>
-      </c>
-      <c r="E6" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41169,16 +41169,16 @@
         <v>1000103</v>
       </c>
       <c r="B7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E7" t="s">
         <v>496</v>
-      </c>
-      <c r="C7" t="s">
-        <v>496</v>
-      </c>
-      <c r="D7" t="s">
-        <v>497</v>
-      </c>
-      <c r="E7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41186,16 +41186,16 @@
         <v>1000104</v>
       </c>
       <c r="B8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" t="s">
         <v>499</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>500</v>
-      </c>
-      <c r="D8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E8" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -41203,16 +41203,16 @@
         <v>1000201</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -41220,16 +41220,16 @@
         <v>1000202</v>
       </c>
       <c r="B10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" t="s">
         <v>293</v>
       </c>
-      <c r="C10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" t="s">
-        <v>295</v>
-      </c>
       <c r="E10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -41237,16 +41237,16 @@
         <v>1000203</v>
       </c>
       <c r="B11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" t="s">
         <v>298</v>
       </c>
-      <c r="C11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11" t="s">
-        <v>300</v>
-      </c>
       <c r="E11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41254,16 +41254,16 @@
         <v>1000204</v>
       </c>
       <c r="B12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12" t="s">
         <v>413</v>
       </c>
-      <c r="C12" t="s">
-        <v>413</v>
-      </c>
-      <c r="D12" t="s">
-        <v>415</v>
-      </c>
       <c r="E12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41271,16 +41271,16 @@
         <v>1000205</v>
       </c>
       <c r="B13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D13" t="s">
         <v>408</v>
       </c>
-      <c r="C13" t="s">
-        <v>507</v>
-      </c>
-      <c r="D13" t="s">
-        <v>410</v>
-      </c>
       <c r="E13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41288,16 +41288,16 @@
         <v>1000206</v>
       </c>
       <c r="B14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C14" t="s">
+        <v>507</v>
+      </c>
+      <c r="D14" t="s">
         <v>508</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>509</v>
-      </c>
-      <c r="D14" t="s">
-        <v>510</v>
-      </c>
-      <c r="E14" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41305,16 +41305,16 @@
         <v>1001101</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D15" t="s">
         <v>512</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>513</v>
-      </c>
-      <c r="D15" t="s">
-        <v>514</v>
-      </c>
-      <c r="E15" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41322,16 +41322,16 @@
         <v>1001102</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="C16" t="s">
+        <v>515</v>
+      </c>
+      <c r="D16" t="s">
         <v>516</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>517</v>
-      </c>
-      <c r="D16" t="s">
-        <v>518</v>
-      </c>
-      <c r="E16" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41339,16 +41339,16 @@
         <v>1001103</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" t="s">
+        <v>519</v>
+      </c>
+      <c r="D17" t="s">
         <v>520</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>521</v>
-      </c>
-      <c r="D17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E17" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41356,16 +41356,16 @@
         <v>1002101</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18" t="s">
         <v>524</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" s="16" t="s">
         <v>525</v>
-      </c>
-      <c r="D18" t="s">
-        <v>526</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41373,16 +41373,16 @@
         <v>1002102</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" t="s">
         <v>528</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" s="16" t="s">
         <v>529</v>
-      </c>
-      <c r="D19" t="s">
-        <v>530</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41390,16 +41390,16 @@
         <v>1002103</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C20" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" t="s">
         <v>532</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" s="16" t="s">
         <v>533</v>
-      </c>
-      <c r="D20" t="s">
-        <v>534</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -41434,7 +41434,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -41443,53 +41443,53 @@
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41497,16 +41497,16 @@
         <v>1003001</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" t="s">
         <v>536</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="E5" t="s">
         <v>537</v>
-      </c>
-      <c r="D5" t="s">
-        <v>538</v>
-      </c>
-      <c r="E5" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41514,16 +41514,16 @@
         <v>1003002</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" t="s">
         <v>540</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" t="s">
         <v>541</v>
-      </c>
-      <c r="D6" t="s">
-        <v>542</v>
-      </c>
-      <c r="E6" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41531,16 +41531,16 @@
         <v>1003003</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="D7" t="s">
         <v>544</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="E7" t="s">
         <v>545</v>
-      </c>
-      <c r="D7" t="s">
-        <v>546</v>
-      </c>
-      <c r="E7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41548,16 +41548,16 @@
         <v>1003004</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="D8" t="s">
         <v>548</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="E8" t="s">
         <v>549</v>
-      </c>
-      <c r="D8" t="s">
-        <v>550</v>
-      </c>
-      <c r="E8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41565,16 +41565,16 @@
         <v>1003005</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="D9" t="s">
         <v>552</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="E9" t="s">
         <v>553</v>
-      </c>
-      <c r="D9" t="s">
-        <v>554</v>
-      </c>
-      <c r="E9" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41582,16 +41582,16 @@
         <v>1003006</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="D10" t="s">
         <v>556</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="E10" t="s">
         <v>557</v>
-      </c>
-      <c r="D10" t="s">
-        <v>558</v>
-      </c>
-      <c r="E10" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41599,16 +41599,16 @@
         <v>1003007</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D11" t="s">
         <v>560</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="E11" t="s">
         <v>561</v>
-      </c>
-      <c r="D11" t="s">
-        <v>562</v>
-      </c>
-      <c r="E11" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41616,16 +41616,16 @@
         <v>1003008</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="D12" t="s">
         <v>564</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="E12" s="15" t="s">
         <v>565</v>
-      </c>
-      <c r="D12" t="s">
-        <v>566</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41633,16 +41633,16 @@
         <v>1003009</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="D13" t="s">
         <v>568</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="E13" t="s">
         <v>569</v>
-      </c>
-      <c r="D13" t="s">
-        <v>570</v>
-      </c>
-      <c r="E13" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41650,16 +41650,16 @@
         <v>2010000</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41667,16 +41667,16 @@
         <v>2010001</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="D15" t="s">
+        <v>572</v>
+      </c>
+      <c r="E15" t="s">
         <v>573</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="D15" t="s">
-        <v>574</v>
-      </c>
-      <c r="E15" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41684,16 +41684,16 @@
         <v>2010002</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="D16" t="s">
+        <v>575</v>
+      </c>
+      <c r="E16" t="s">
         <v>576</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="D16" t="s">
-        <v>577</v>
-      </c>
-      <c r="E16" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41701,16 +41701,16 @@
         <v>2010003</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="D17" t="s">
+        <v>578</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>579</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="D17" t="s">
-        <v>580</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41718,16 +41718,16 @@
         <v>2010004</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D18" t="s">
         <v>582</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="E18" t="s">
         <v>583</v>
-      </c>
-      <c r="D18" t="s">
-        <v>584</v>
-      </c>
-      <c r="E18" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41735,16 +41735,16 @@
         <v>2010005</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="D19" t="s">
         <v>586</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="E19" t="s">
         <v>587</v>
-      </c>
-      <c r="D19" t="s">
-        <v>588</v>
-      </c>
-      <c r="E19" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41752,16 +41752,16 @@
         <v>2010006</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="D20" t="s">
         <v>590</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="E20" t="s">
         <v>591</v>
-      </c>
-      <c r="D20" t="s">
-        <v>592</v>
-      </c>
-      <c r="E20" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41769,16 +41769,16 @@
         <v>2010007</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="D21" t="s">
         <v>594</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="E21" s="16" t="s">
         <v>595</v>
-      </c>
-      <c r="D21" t="s">
-        <v>596</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41786,16 +41786,16 @@
         <v>2010008</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D22" t="s">
+        <v>597</v>
+      </c>
+      <c r="E22" t="s">
         <v>598</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="D22" t="s">
-        <v>599</v>
-      </c>
-      <c r="E22" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41803,16 +41803,16 @@
         <v>2010009</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="D23" t="s">
         <v>601</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="E23" t="s">
         <v>602</v>
-      </c>
-      <c r="D23" t="s">
-        <v>603</v>
-      </c>
-      <c r="E23" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41820,16 +41820,16 @@
         <v>2010010</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="D24" t="s">
         <v>605</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="E24" s="16" t="s">
         <v>606</v>
-      </c>
-      <c r="D24" t="s">
-        <v>607</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41837,16 +41837,16 @@
         <v>2010011</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="D25" t="s">
         <v>609</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="E25" s="16" t="s">
         <v>610</v>
-      </c>
-      <c r="D25" t="s">
-        <v>611</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41854,16 +41854,16 @@
         <v>2010012</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="D26" t="s">
         <v>613</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="D26" t="s">
-        <v>615</v>
-      </c>
       <c r="E26" s="16" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41871,16 +41871,16 @@
         <v>2010013</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="D27" t="s">
         <v>616</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="E27" s="16" t="s">
         <v>617</v>
-      </c>
-      <c r="D27" t="s">
-        <v>618</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41888,16 +41888,16 @@
         <v>2010014</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="D28" t="s">
         <v>620</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="E28" t="s">
         <v>621</v>
-      </c>
-      <c r="D28" t="s">
-        <v>622</v>
-      </c>
-      <c r="E28" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41905,16 +41905,16 @@
         <v>2010015</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="D29" t="s">
+        <v>623</v>
+      </c>
+      <c r="E29" t="s">
         <v>624</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="D29" t="s">
-        <v>625</v>
-      </c>
-      <c r="E29" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41922,16 +41922,16 @@
         <v>2010016</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="D30" t="s">
         <v>627</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="E30" t="s">
         <v>628</v>
-      </c>
-      <c r="D30" t="s">
-        <v>629</v>
-      </c>
-      <c r="E30" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41939,16 +41939,16 @@
         <v>2010017</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="D31" t="s">
         <v>631</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="E31" t="s">
         <v>632</v>
-      </c>
-      <c r="D31" t="s">
-        <v>633</v>
-      </c>
-      <c r="E31" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41956,16 +41956,16 @@
         <v>2010018</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="D32" t="s">
         <v>635</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="E32" t="s">
         <v>636</v>
-      </c>
-      <c r="D32" t="s">
-        <v>637</v>
-      </c>
-      <c r="E32" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41973,16 +41973,16 @@
         <v>2010019</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="D33" t="s">
         <v>639</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="E33" s="16" t="s">
         <v>640</v>
-      </c>
-      <c r="D33" t="s">
-        <v>641</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -41990,16 +41990,16 @@
         <v>2010020</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="D34" t="s">
         <v>643</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="E34" s="16" t="s">
         <v>644</v>
-      </c>
-      <c r="D34" t="s">
-        <v>645</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42007,16 +42007,16 @@
         <v>2010021</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="D35" t="s">
         <v>647</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="E35" s="16" t="s">
         <v>648</v>
-      </c>
-      <c r="D35" t="s">
-        <v>649</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42024,16 +42024,16 @@
         <v>2010022</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="D36" t="s">
         <v>651</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="E36" t="s">
         <v>652</v>
-      </c>
-      <c r="D36" t="s">
-        <v>653</v>
-      </c>
-      <c r="E36" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42041,16 +42041,16 @@
         <v>2010023</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="D37" t="s">
         <v>655</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="E37" t="s">
         <v>656</v>
-      </c>
-      <c r="D37" t="s">
-        <v>657</v>
-      </c>
-      <c r="E37" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42058,16 +42058,16 @@
         <v>2010024</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="D38" t="s">
         <v>659</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="E38" t="s">
         <v>660</v>
-      </c>
-      <c r="D38" t="s">
-        <v>661</v>
-      </c>
-      <c r="E38" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42075,16 +42075,16 @@
         <v>2010028</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="D39" t="s">
         <v>663</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="E39" t="s">
         <v>664</v>
-      </c>
-      <c r="D39" t="s">
-        <v>665</v>
-      </c>
-      <c r="E39" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42092,16 +42092,16 @@
         <v>2010029</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="D40" t="s">
         <v>667</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="E40" t="s">
         <v>668</v>
-      </c>
-      <c r="D40" t="s">
-        <v>669</v>
-      </c>
-      <c r="E40" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42109,16 +42109,16 @@
         <v>2010030</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="D41" t="s">
         <v>671</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>672</v>
-      </c>
-      <c r="D41" t="s">
-        <v>673</v>
-      </c>
       <c r="E41" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42126,16 +42126,16 @@
         <v>2010031</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="D42" t="s">
         <v>674</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="E42" t="s">
         <v>675</v>
-      </c>
-      <c r="D42" t="s">
-        <v>676</v>
-      </c>
-      <c r="E42" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42143,16 +42143,16 @@
         <v>2010032</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="D43" t="s">
         <v>678</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="E43" t="s">
         <v>679</v>
-      </c>
-      <c r="D43" t="s">
-        <v>680</v>
-      </c>
-      <c r="E43" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42160,16 +42160,16 @@
         <v>2010033</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="D44" t="s">
         <v>682</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="E44" t="s">
         <v>683</v>
-      </c>
-      <c r="D44" t="s">
-        <v>684</v>
-      </c>
-      <c r="E44" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42177,16 +42177,16 @@
         <v>2010034</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="D45" t="s">
         <v>686</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="E45" t="s">
         <v>687</v>
-      </c>
-      <c r="D45" t="s">
-        <v>688</v>
-      </c>
-      <c r="E45" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42194,16 +42194,16 @@
         <v>2010035</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="D46" t="s">
         <v>690</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="E46" t="s">
         <v>691</v>
-      </c>
-      <c r="D46" t="s">
-        <v>692</v>
-      </c>
-      <c r="E46" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42211,16 +42211,16 @@
         <v>2010036</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="D47" t="s">
         <v>694</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="E47" t="s">
         <v>695</v>
-      </c>
-      <c r="D47" t="s">
-        <v>696</v>
-      </c>
-      <c r="E47" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42228,16 +42228,16 @@
         <v>2010037</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="D48" t="s">
         <v>698</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="E48" t="s">
         <v>699</v>
-      </c>
-      <c r="D48" t="s">
-        <v>700</v>
-      </c>
-      <c r="E48" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42245,16 +42245,16 @@
         <v>2010038</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="D49" t="s">
         <v>702</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="E49" t="s">
         <v>703</v>
-      </c>
-      <c r="D49" t="s">
-        <v>704</v>
-      </c>
-      <c r="E49" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42262,16 +42262,16 @@
         <v>2010039</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="D50" t="s">
         <v>706</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="E50" t="s">
         <v>707</v>
-      </c>
-      <c r="D50" t="s">
-        <v>708</v>
-      </c>
-      <c r="E50" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42279,16 +42279,16 @@
         <v>2010042</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="D51" t="s">
         <v>710</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="E51" t="s">
         <v>711</v>
-      </c>
-      <c r="D51" t="s">
-        <v>712</v>
-      </c>
-      <c r="E51" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42296,16 +42296,16 @@
         <v>2010043</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="D52" t="s">
         <v>714</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="E52" s="16" t="s">
         <v>715</v>
-      </c>
-      <c r="D52" t="s">
-        <v>716</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42313,16 +42313,16 @@
         <v>2010044</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="D53" t="s">
         <v>718</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="E53" s="16" t="s">
         <v>719</v>
-      </c>
-      <c r="D53" t="s">
-        <v>720</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -42330,16 +42330,16 @@
         <v>2010045</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="D54" t="s">
         <v>722</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="E54" s="16" t="s">
         <v>723</v>
-      </c>
-      <c r="D54" t="s">
-        <v>724</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -42371,7 +42371,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -42380,53 +42380,53 @@
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -42434,16 +42434,16 @@
         <v>1001107</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="C5" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5" t="s">
         <v>726</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>727</v>
-      </c>
-      <c r="D5" t="s">
-        <v>728</v>
-      </c>
-      <c r="E5" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -42451,16 +42451,16 @@
         <v>1001108</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="C6" t="s">
+        <v>729</v>
+      </c>
+      <c r="D6" t="s">
         <v>730</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>731</v>
-      </c>
-      <c r="D6" t="s">
-        <v>732</v>
-      </c>
-      <c r="E6" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -42468,16 +42468,16 @@
         <v>1001109</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="C7" t="s">
+        <v>733</v>
+      </c>
+      <c r="D7" t="s">
         <v>734</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>735</v>
-      </c>
-      <c r="D7" t="s">
-        <v>736</v>
-      </c>
-      <c r="E7" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -42485,16 +42485,16 @@
         <v>1001110</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C8" t="s">
+        <v>737</v>
+      </c>
+      <c r="D8" t="s">
         <v>738</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>739</v>
-      </c>
-      <c r="D8" t="s">
-        <v>740</v>
-      </c>
-      <c r="E8" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -42502,16 +42502,16 @@
         <v>1001111</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C9" t="s">
+        <v>741</v>
+      </c>
+      <c r="D9" t="s">
         <v>742</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>743</v>
-      </c>
-      <c r="D9" t="s">
-        <v>744</v>
-      </c>
-      <c r="E9" t="s">
-        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -42543,7 +42543,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -42552,53 +42552,53 @@
     </row>
     <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -42606,16 +42606,16 @@
         <v>2000</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="C5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D5" t="s">
         <v>746</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>747</v>
-      </c>
-      <c r="D5" t="s">
-        <v>748</v>
-      </c>
-      <c r="E5" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -42623,16 +42623,16 @@
         <v>2001</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C6" t="s">
+        <v>749</v>
+      </c>
+      <c r="D6" t="s">
         <v>750</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>751</v>
-      </c>
-      <c r="D6" t="s">
-        <v>752</v>
-      </c>
-      <c r="E6" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -42640,16 +42640,16 @@
         <v>2002</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C7" t="s">
+        <v>753</v>
+      </c>
+      <c r="D7" t="s">
         <v>754</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>755</v>
-      </c>
-      <c r="D7" t="s">
-        <v>756</v>
-      </c>
-      <c r="E7" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -42657,16 +42657,16 @@
         <v>2003</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="C8" t="s">
+        <v>757</v>
+      </c>
+      <c r="D8" t="s">
         <v>758</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>759</v>
-      </c>
-      <c r="D8" t="s">
-        <v>760</v>
-      </c>
-      <c r="E8" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -42674,16 +42674,16 @@
         <v>2004</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D9" t="s">
         <v>762</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>763</v>
-      </c>
-      <c r="D9" t="s">
-        <v>764</v>
-      </c>
-      <c r="E9" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -42691,16 +42691,16 @@
         <v>2005</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C10" t="s">
+        <v>765</v>
+      </c>
+      <c r="D10" t="s">
         <v>766</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>767</v>
-      </c>
-      <c r="D10" t="s">
-        <v>768</v>
-      </c>
-      <c r="E10" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -42708,16 +42708,16 @@
         <v>2006</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C11" t="s">
+        <v>769</v>
+      </c>
+      <c r="D11" t="s">
         <v>770</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>771</v>
-      </c>
-      <c r="D11" t="s">
-        <v>772</v>
-      </c>
-      <c r="E11" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -42725,16 +42725,16 @@
         <v>2007</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C12" t="s">
+        <v>773</v>
+      </c>
+      <c r="D12" t="s">
         <v>774</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>775</v>
-      </c>
-      <c r="D12" t="s">
-        <v>776</v>
-      </c>
-      <c r="E12" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -42742,16 +42742,16 @@
         <v>2008</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C13" t="s">
+        <v>777</v>
+      </c>
+      <c r="D13" t="s">
         <v>778</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="8" t="s">
         <v>779</v>
-      </c>
-      <c r="D13" t="s">
-        <v>780</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -42759,16 +42759,16 @@
         <v>2009</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="C14" t="s">
+        <v>781</v>
+      </c>
+      <c r="D14" t="s">
         <v>782</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" s="8" t="s">
         <v>783</v>
-      </c>
-      <c r="D14" t="s">
-        <v>784</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -42882,7 +42882,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -42890,62 +42890,62 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -42953,19 +42953,19 @@
         <v>1000</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>788</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -42973,19 +42973,19 @@
         <v>1001</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -42993,19 +42993,19 @@
         <v>1002</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>800</v>
       </c>
     </row>
   </sheetData>
